--- a/data/trans_dic/P45C_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Provincia-trans_dic.xlsx
@@ -709,26 +709,26 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.01617515474141815</v>
+        <v>0.01493261170723116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0154788110911399</v>
+        <v>0.01617846033769774</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.003508560212170361</v>
+        <v>0.003449681476799756</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01115293054705252</v>
+        <v>0.00989386574126404</v>
       </c>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="inlineStr"/>
       <c r="L5" s="5" t="n">
-        <v>0.01262343375268958</v>
+        <v>0.01273661657510353</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01704884340567688</v>
+        <v>0.01654207142306582</v>
       </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
@@ -741,26 +741,26 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.05953756723166013</v>
+        <v>0.05887503658484249</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06677321560068224</v>
+        <v>0.06507933037904971</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.04097914591411696</v>
+        <v>0.03947862409147161</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05351826916329715</v>
+        <v>0.04864318796963086</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.04039559511844579</v>
+        <v>0.040150703740054</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04652943305082403</v>
+        <v>0.04906039745169562</v>
       </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
@@ -797,7 +797,7 @@
         <v>0.01137014278185905</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04688471356665608</v>
+        <v>0.04688471356665609</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.029207939163727</v>
@@ -809,7 +809,7 @@
         <v>0.00861508531710958</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04460168544729344</v>
+        <v>0.04460168544729345</v>
       </c>
     </row>
     <row r="8">
@@ -820,40 +820,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01789438178166038</v>
+        <v>0.01770889484547665</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003914082534557261</v>
+        <v>0.003856860287026339</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001741489726706063</v>
+        <v>0.00173080166166269</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02413093177706069</v>
+        <v>0.02396354937409292</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01781855145250383</v>
+        <v>0.0163081506668862</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005306750762947331</v>
+        <v>0.004039341793450098</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03248555303344273</v>
+        <v>0.03299067771976204</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02063736948986776</v>
+        <v>0.01998783983238922</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.002939207310100995</v>
+        <v>0.002873827562106779</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.003926629952328455</v>
+        <v>0.003864758716464453</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03213183370027162</v>
+        <v>0.03332872615522749</v>
       </c>
     </row>
     <row r="9">
@@ -864,40 +864,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05019230763366007</v>
+        <v>0.04926425218635011</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02504642293361411</v>
+        <v>0.02583740321666985</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01606065163775602</v>
+        <v>0.01486262611131136</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06829771196265942</v>
+        <v>0.07081541595049982</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04728248925702722</v>
+        <v>0.04982611254823363</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01243677536124987</v>
+        <v>0.01089132093154936</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02313942655555255</v>
+        <v>0.02423073426909305</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06639980714803924</v>
+        <v>0.06656397614305128</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04295713925061751</v>
+        <v>0.04143074013882594</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01362253636403573</v>
+        <v>0.01298431106539733</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01499069692603624</v>
+        <v>0.01587448895250415</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06030955258379796</v>
+        <v>0.06109378255587358</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.001334132027075304</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.003375650677000824</v>
+        <v>0.003375650677000825</v>
       </c>
     </row>
     <row r="11">
@@ -967,23 +967,23 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01484881772606167</v>
+        <v>0.01675577191765011</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.001801741412753741</v>
+        <v>0.001802514029147263</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.008902048918102732</v>
+        <v>0.009250895604701289</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0009577127789877491</v>
+        <v>0.0009654316014487009</v>
       </c>
     </row>
     <row r="12">
@@ -995,33 +995,33 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.01597093681875134</v>
+        <v>0.01698977433607163</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0157884597858336</v>
+        <v>0.01640294867035485</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>0.01493235114286648</v>
+        <v>0.01796440849578347</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05514405785090783</v>
+        <v>0.05571623946220849</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.01899973597697581</v>
+        <v>0.01895870022068796</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.007683782368434489</v>
+        <v>0.008637452925434951</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03140146212981527</v>
+        <v>0.03200343564262019</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.006697341607184342</v>
+        <v>0.007371366070672653</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.009371297811479679</v>
+        <v>0.009047485544509196</v>
       </c>
     </row>
     <row r="13">
@@ -1057,7 +1057,7 @@
         <v>0.02642154843488907</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.004806396374554782</v>
+        <v>0.004806396374554783</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01624927364501877</v>
@@ -1069,7 +1069,7 @@
         <v>0.01856510218978438</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.008705071422246762</v>
+        <v>0.008705071422246765</v>
       </c>
     </row>
     <row r="14">
@@ -1080,40 +1080,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01282180227997403</v>
+        <v>0.01325370501811943</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02301738012459289</v>
+        <v>0.02364360833800103</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002658383181768669</v>
+        <v>0.002609395044008716</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.003789204499074549</v>
+        <v>0.004216751775209626</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02437323013405638</v>
+        <v>0.02580702824491291</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01367253134541166</v>
+        <v>0.01242905647992376</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.001010440018279063</v>
+        <v>0.001021490316616203</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.008611224951037218</v>
+        <v>0.008644196221835975</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02953687708564235</v>
+        <v>0.02845234087572385</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0108273754498277</v>
+        <v>0.01058863805604083</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.003934747420364726</v>
+        <v>0.003853006037977674</v>
       </c>
     </row>
     <row r="15">
@@ -1124,40 +1124,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05159653591892213</v>
+        <v>0.05505560279908668</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0701705694521817</v>
+        <v>0.07129196991146509</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02409454772173077</v>
+        <v>0.02624319538959128</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03043181905634653</v>
+        <v>0.02975463824761514</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01855375110199857</v>
+        <v>0.01761402082550675</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06482487175434298</v>
+        <v>0.06633249164611774</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04611301824285013</v>
+        <v>0.04537590180863942</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01426110411866099</v>
+        <v>0.0134541535345667</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02985317345254625</v>
+        <v>0.02968501466966815</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06163294538255291</v>
+        <v>0.05850778620398235</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03102913459277467</v>
+        <v>0.03045581895210833</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01725702741792002</v>
+        <v>0.01737053076720802</v>
       </c>
     </row>
     <row r="16">
@@ -1244,22 +1244,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02360531843055443</v>
+        <v>0.01754543532957207</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.02877116823553166</v>
+        <v>0.02710976695567649</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>0.01058527750239563</v>
+        <v>0.008958469870671167</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01585715849412848</v>
+        <v>0.01486225063240603</v>
       </c>
       <c r="M18" s="5" t="inlineStr"/>
       <c r="N18" s="5" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
         <v>0.007660717174851133</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.02183945421100899</v>
+        <v>0.02183945421100898</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.007004458436957945</v>
@@ -1297,7 +1297,7 @@
         <v>0.01828690280995812</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.02637507042512165</v>
+        <v>0.02637507042512164</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.007031274222360315</v>
@@ -1323,37 +1323,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003553427242837118</v>
+        <v>0.003641724651780919</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.008588421287149196</v>
+        <v>0.01048705400324835</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003505398656410463</v>
+        <v>0.006113353363339931</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.007115671732430729</v>
+        <v>0.006955056414540522</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01211108200688813</v>
+        <v>0.01340246953403247</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.001814526576901826</v>
+        <v>0.001803403078150675</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.007110129857451818</v>
+        <v>0.007120429631088275</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.00557908178302269</v>
+        <v>0.005433552931224887</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01520672761251863</v>
+        <v>0.01407554054447934</v>
       </c>
     </row>
     <row r="21">
@@ -1364,40 +1364,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0267073226964627</v>
+        <v>0.02540234704248068</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03364493898392328</v>
+        <v>0.03692404976418946</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02692063418730839</v>
+        <v>0.02702625045746748</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04274758765775986</v>
+        <v>0.0433119273341423</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02587273841074165</v>
+        <v>0.02438532521351692</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04304773444655964</v>
+        <v>0.04452333634258711</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04422315297521736</v>
+        <v>0.04056166167147674</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04577570965130377</v>
+        <v>0.04771635287949945</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0178332230945248</v>
+        <v>0.01743142139095559</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03038132881894046</v>
+        <v>0.03334075951290499</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02739660158815561</v>
+        <v>0.02544473643862641</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.0375148061959542</v>
+        <v>0.03828305733877861</v>
       </c>
     </row>
     <row r="22">
@@ -1456,40 +1456,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01399654690848627</v>
+        <v>0.01329988660989499</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.003461706579203753</v>
+        <v>0.003563290966348512</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.004488740805120593</v>
+        <v>0.004681457663691402</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01165685341900716</v>
+        <v>0.01077657144711636</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01753900358191628</v>
+        <v>0.01731990241976387</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.007486583246982171</v>
+        <v>0.007923925668632009</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.00152784684959108</v>
+        <v>0.001735145766219158</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01223302689381421</v>
+        <v>0.01258894718794631</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0185394092322346</v>
+        <v>0.01822407956671441</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.007726868252964543</v>
+        <v>0.007703002736609359</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.004813400402424127</v>
+        <v>0.004306615700646965</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01387684338497585</v>
+        <v>0.01422082395345761</v>
       </c>
     </row>
     <row r="24">
@@ -1500,40 +1500,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04066126985523715</v>
+        <v>0.04324358120999489</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01915346526115815</v>
+        <v>0.01885102400966555</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02513957989924936</v>
+        <v>0.02542572399700982</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04134947933887087</v>
+        <v>0.03741167016625742</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04323395790858032</v>
+        <v>0.04515718859753957</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02751115596573003</v>
+        <v>0.02815753733062978</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0173888045659718</v>
+        <v>0.01742892867170025</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03569344096829609</v>
+        <v>0.03689708950897006</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0382218844087128</v>
+        <v>0.03754037606856596</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02021249225074397</v>
+        <v>0.02028286701092738</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01785683719592284</v>
+        <v>0.01753184827512944</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03152808652519563</v>
+        <v>0.03204885866738183</v>
       </c>
     </row>
     <row r="25">
@@ -1569,7 +1569,7 @@
         <v>0.007755651642422596</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.004595841847943842</v>
+        <v>0.004595841847943843</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.02107007950710322</v>
@@ -1581,7 +1581,7 @@
         <v>0.006400146370040588</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.009312392134739816</v>
+        <v>0.009312392134739814</v>
       </c>
     </row>
     <row r="26">
@@ -1592,40 +1592,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.009504343719884423</v>
+        <v>0.008754744059125271</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.00123632910741916</v>
+        <v>0.001241072115525258</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.007119233982080695</v>
+        <v>0.007491445948054617</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01478004278073297</v>
+        <v>0.01536391274287931</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.002605807872570804</v>
+        <v>0.002635068644964801</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.002806232528025015</v>
+        <v>0.002582749450970077</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0009358879790080918</v>
+        <v>0.001178040388803971</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01352059105455448</v>
+        <v>0.01449332171608591</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.002569274547172751</v>
+        <v>0.002553151624876402</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.003213084869501927</v>
+        <v>0.003141285069710047</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.005208804505465929</v>
+        <v>0.005525448745828993</v>
       </c>
     </row>
     <row r="27">
@@ -1636,40 +1636,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02880822289699122</v>
+        <v>0.03039939045239583</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.009232497493099135</v>
+        <v>0.00929163006822311</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01155655180012679</v>
+        <v>0.01269550878718962</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02523284908059171</v>
+        <v>0.02988691209104275</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03730667023874887</v>
+        <v>0.04001131435706871</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01552451651913786</v>
+        <v>0.01660753929434098</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01620326043170469</v>
+        <v>0.0154432852633919</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01173307960389463</v>
+        <v>0.01169339674433485</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03010360752360406</v>
+        <v>0.02965377153712579</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.009879185542354098</v>
+        <v>0.009656911407603433</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01141297681143362</v>
+        <v>0.01154617271072973</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.01512191354159735</v>
+        <v>0.01576593984133766</v>
       </c>
     </row>
     <row r="28">
@@ -1717,7 +1717,7 @@
         <v>0.01021670087892437</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.01621200562140068</v>
+        <v>0.01621200562140069</v>
       </c>
     </row>
     <row r="29">
@@ -1728,40 +1728,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01292901206384162</v>
+        <v>0.01247373330250917</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.009293137798313597</v>
+        <v>0.009432288946130483</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.005971911731572114</v>
+        <v>0.006318888625367748</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01253531565375508</v>
+        <v>0.01255493392730842</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01252723058804069</v>
+        <v>0.01270210593630285</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01212559402864551</v>
+        <v>0.01227934980928889</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.008157800721403045</v>
+        <v>0.008016698954558013</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.01225005030813078</v>
+        <v>0.01210762330382762</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01367359626463664</v>
+        <v>0.01392179433862562</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.0116583955532987</v>
+        <v>0.01175603973126024</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.007902657592385367</v>
+        <v>0.007983640461477771</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.01336047961593701</v>
+        <v>0.01356141123181187</v>
       </c>
     </row>
     <row r="30">
@@ -1772,40 +1772,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0218158423528154</v>
+        <v>0.02194451073057407</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01764000730047602</v>
+        <v>0.01725590317841286</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01294518920901509</v>
+        <v>0.01336794675497199</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02250115623867711</v>
+        <v>0.02245817622945288</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.02143218670027817</v>
+        <v>0.02124561445018671</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.02067531596091173</v>
+        <v>0.0213921967501156</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.01540130121006203</v>
+        <v>0.01512733970932975</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.01988163131071137</v>
+        <v>0.01975847898467285</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.02022537227755782</v>
+        <v>0.02031356930901283</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.01759998271478757</v>
+        <v>0.01738793818340759</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.01296672821864899</v>
+        <v>0.01305308834307417</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.01996941648219766</v>
+        <v>0.01969679674492376</v>
       </c>
     </row>
     <row r="31">
@@ -2081,26 +2081,26 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>4767</v>
+        <v>4401</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4547</v>
+        <v>4753</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3210</v>
+        <v>2847</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
       <c r="K6" s="6" t="inlineStr"/>
       <c r="L6" s="6" t="n">
-        <v>7306</v>
+        <v>7371</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9915</v>
+        <v>9620</v>
       </c>
       <c r="N6" s="6" t="inlineStr"/>
     </row>
@@ -2113,26 +2113,26 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>17548</v>
+        <v>17353</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19615</v>
+        <v>19118</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>11638</v>
+        <v>11212</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15402</v>
+        <v>13999</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>23378</v>
+        <v>23237</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>27059</v>
+        <v>28531</v>
       </c>
       <c r="N7" s="6" t="inlineStr"/>
     </row>
@@ -2236,40 +2236,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8823</v>
+        <v>8732</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1951</v>
+        <v>1922</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12772</v>
+        <v>12684</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8980</v>
+        <v>8218</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2764</v>
+        <v>2104</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>17733</v>
+        <v>18009</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>20576</v>
+        <v>19928</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2974</v>
+        <v>2908</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4002</v>
+        <v>3939</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>34547</v>
+        <v>35834</v>
       </c>
     </row>
     <row r="11">
@@ -2280,40 +2280,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24749</v>
+        <v>24291</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12485</v>
+        <v>12879</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8004</v>
+        <v>7407</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>36149</v>
+        <v>37482</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>23828</v>
+        <v>25110</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6384</v>
+        <v>5591</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12053</v>
+        <v>12622</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>36247</v>
+        <v>36336</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>42829</v>
+        <v>41307</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>13783</v>
+        <v>13137</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>15280</v>
+        <v>16180</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>64843</v>
+        <v>65687</v>
       </c>
     </row>
     <row r="12">
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5030</v>
+        <v>5676</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
@@ -2437,13 +2437,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5892</v>
+        <v>6123</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15">
@@ -2455,33 +2455,33 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>5160</v>
+        <v>5490</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4979</v>
+        <v>5173</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>5008</v>
+        <v>6025</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18679</v>
+        <v>18873</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>6771</v>
+        <v>6757</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5027</v>
+        <v>5651</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>20783</v>
+        <v>21181</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>4343</v>
+        <v>4780</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>6295</v>
+        <v>6078</v>
       </c>
     </row>
     <row r="16">
@@ -2584,40 +2584,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4599</v>
+        <v>4754</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8487</v>
+        <v>8717</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>981</v>
+        <v>963</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1404</v>
+        <v>1563</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9352</v>
+        <v>9902</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5269</v>
+        <v>4790</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6287</v>
+        <v>6311</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>22224</v>
+        <v>21408</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>8168</v>
+        <v>7988</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3119</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="19">
@@ -2628,40 +2628,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18506</v>
+        <v>19747</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25872</v>
+        <v>26285</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8891</v>
+        <v>9684</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11280</v>
+        <v>11029</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6892</v>
+        <v>6543</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>24874</v>
+        <v>25452</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17771</v>
+        <v>17487</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>6018</v>
+        <v>5677</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>21797</v>
+        <v>21674</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>46373</v>
+        <v>44022</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>23408</v>
+        <v>22975</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>13678</v>
+        <v>13768</v>
       </c>
     </row>
     <row r="20">
@@ -2792,22 +2792,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4799</v>
+        <v>3567</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>6289</v>
+        <v>5926</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="inlineStr"/>
       <c r="K23" s="6" t="n">
-        <v>4350</v>
+        <v>3682</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>6838</v>
+        <v>6409</v>
       </c>
       <c r="M23" s="6" t="inlineStr"/>
       <c r="N23" s="6" t="inlineStr"/>
@@ -2915,37 +2915,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>967</v>
+        <v>991</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2318</v>
+        <v>2831</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>982</v>
+        <v>1712</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1936</v>
+        <v>1892</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3194</v>
+        <v>3535</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>3926</v>
+        <v>3931</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>2981</v>
+        <v>2903</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>8115</v>
+        <v>7512</v>
       </c>
     </row>
     <row r="27">
@@ -2956,40 +2956,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7233</v>
+        <v>6879</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9154</v>
+        <v>10046</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7057</v>
+        <v>7085</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11538</v>
+        <v>11690</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7196</v>
+        <v>6783</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>12055</v>
+        <v>12468</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>12033</v>
+        <v>11037</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>12073</v>
+        <v>12585</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>9790</v>
+        <v>9569</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>16774</v>
+        <v>18408</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>14637</v>
+        <v>13594</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>20020</v>
+        <v>20430</v>
       </c>
     </row>
     <row r="28">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>8608</v>
+        <v>8180</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2284</v>
+        <v>2351</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2891</v>
+        <v>3015</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>8363</v>
+        <v>7732</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>11177</v>
+        <v>11037</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>5171</v>
+        <v>5473</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1035</v>
+        <v>1176</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>9427</v>
+        <v>9701</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>23216</v>
+        <v>22821</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>10435</v>
+        <v>10403</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>6362</v>
+        <v>5692</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>20650</v>
+        <v>21162</v>
       </c>
     </row>
     <row r="31">
@@ -3136,40 +3136,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>25008</v>
+        <v>26596</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>12638</v>
+        <v>12439</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>16193</v>
+        <v>16377</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>29666</v>
+        <v>26841</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>27550</v>
+        <v>28776</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>19001</v>
+        <v>19448</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>11782</v>
+        <v>11809</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>27506</v>
+        <v>28434</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>47864</v>
+        <v>47011</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>27297</v>
+        <v>27392</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>23600</v>
+        <v>23171</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>46916</v>
+        <v>47691</v>
       </c>
     </row>
     <row r="32">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>6996</v>
+        <v>6445</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>5682</v>
+        <v>5979</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>11474</v>
+        <v>11927</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2122</v>
+        <v>2146</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2309</v>
+        <v>2125</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>776</v>
+        <v>977</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>20449</v>
+        <v>21920</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4069</v>
+        <v>4044</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>5122</v>
+        <v>5008</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>8476</v>
+        <v>8991</v>
       </c>
     </row>
     <row r="35">
@@ -3316,40 +3316,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>21206</v>
+        <v>22377</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>7104</v>
+        <v>7150</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>8913</v>
+        <v>9792</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>20138</v>
+        <v>23852</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>28961</v>
+        <v>31061</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>12642</v>
+        <v>13524</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>13333</v>
+        <v>12708</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>9729</v>
+        <v>9696</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>45529</v>
+        <v>44849</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>15647</v>
+        <v>15295</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>18194</v>
+        <v>18406</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>24607</v>
+        <v>25655</v>
       </c>
     </row>
     <row r="36">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>42263</v>
+        <v>40775</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>31588</v>
+        <v>32061</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>20097</v>
+        <v>21265</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>44190</v>
+        <v>44259</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>42229</v>
+        <v>42819</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>42724</v>
+        <v>43265</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>28701</v>
+        <v>28204</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>45701</v>
+        <v>45169</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>90791</v>
+        <v>92439</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>80705</v>
+        <v>81381</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>54398</v>
+        <v>54955</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>96943</v>
+        <v>98401</v>
       </c>
     </row>
     <row r="39">
@@ -3496,40 +3496,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>71313</v>
+        <v>71734</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>59959</v>
+        <v>58654</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>43564</v>
+        <v>44987</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>79323</v>
+        <v>79171</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>72248</v>
+        <v>71619</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>72848</v>
+        <v>75374</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>54185</v>
+        <v>53221</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>74172</v>
+        <v>73712</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>134294</v>
+        <v>134879</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>121835</v>
+        <v>120368</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>89256</v>
+        <v>89851</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>144897</v>
+        <v>142918</v>
       </c>
     </row>
     <row r="40">
